--- a/Risultati/Pipeline3 TripleR/Test_usando_il_modello_9.xlsx
+++ b/Risultati/Pipeline3 TripleR/Test_usando_il_modello_9.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.96985886070773</v>
+        <v>32.99293476771223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.81003366210373</v>
+        <v>39.81795260052328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30.38248839855024</v>
+        <v>32.8466741743693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28.64033660280774</v>
+        <v>30.89634255962685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28.67042626725217</v>
+        <v>30.76680808256089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25.23570327177779</v>
+        <v>26.39873364736599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24.33336510914546</v>
+        <v>24.86969599478817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26.40140429801599</v>
+        <v>26.38991189248756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24.29742592719117</v>
+        <v>23.94022531284983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27.40762123547785</v>
+        <v>27.25960600151734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.18381980927363</v>
+        <v>24.75452262489402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.82185336066586</v>
+        <v>20.46655330024399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.02005594059071</v>
+        <v>21.05394258799927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.65359441321607</v>
+        <v>22.20226048738496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19.4445158755064</v>
+        <v>19.46990463595043</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18.09992847950772</v>
+        <v>17.26670102626844</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.85842548603243</v>
+        <v>21.60091681413137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16.50721990439305</v>
+        <v>15.00795634773498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22.41616861557003</v>
+        <v>20.09772569057796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.4386432537994</v>
+        <v>19.87328033220207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17.53285919788195</v>
+        <v>17.24699887520443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19.12820685916978</v>
+        <v>18.39964834137456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.33074212937804</v>
+        <v>16.9082392868022</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.99198608077764</v>
+        <v>16.73228708559159</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.70627452915795</v>
+        <v>13.76641543155043</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>19.28461537250931</v>
+        <v>17.51973174560494</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19.52979509795436</v>
+        <v>18.69396516350307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15.52953907883102</v>
+        <v>14.47722281418032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13.3146267576864</v>
+        <v>13.18337501373389</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.14371824694399</v>
+        <v>10.57188800643623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16.51350824793772</v>
+        <v>15.11393900861776</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20.20988552211008</v>
+        <v>18.11137515097056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19.65331082607173</v>
+        <v>17.68118765067433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18.3281112024377</v>
+        <v>17.31761244851236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15.85274386917985</v>
+        <v>14.39128494512975</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15.13441643643183</v>
+        <v>13.73328375738535</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17.13679012685171</v>
+        <v>14.79663574215394</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16.62537114481381</v>
+        <v>15.40097082537302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13.67219188389049</v>
+        <v>12.75473845065363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13.72139502774526</v>
+        <v>12.72654919580208</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17.30605643677438</v>
+        <v>15.51420423065211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15.6647431842519</v>
+        <v>15.17978664506111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17.04980364176879</v>
+        <v>15.40841250596976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16.92008238183672</v>
+        <v>15.90846253914941</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19.03839696609492</v>
+        <v>16.43305033557174</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18.33796230050996</v>
+        <v>15.6487362404888</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15.14218538033711</v>
+        <v>13.85595256237559</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14.90993735559779</v>
+        <v>12.96146455252259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16.76213624424688</v>
+        <v>15.12808471808341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12.85206711613131</v>
+        <v>11.78453101333216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15.38195275128035</v>
+        <v>13.48623860161457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14.60121805843312</v>
+        <v>13.34904515479656</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12.92212196155188</v>
+        <v>11.10340493431545</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13.84643477828169</v>
+        <v>11.92007380866352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15.17395951627744</v>
+        <v>13.23724683868024</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15.46797494530168</v>
+        <v>13.67155087160168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15.20960598023817</v>
+        <v>13.10482456713882</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12.27583401853637</v>
+        <v>11.22527658932455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12.37558845881804</v>
+        <v>10.82300621784216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>12.12099533415704</v>
+        <v>10.55655299881593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.02549349140939</v>
+        <v>11.93905418264083</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.83092452154681</v>
+        <v>10.61118378234043</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.61212302976226</v>
+        <v>9.381881871243422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>14.01915792730317</v>
+        <v>12.4443902414383</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12.83835983598331</v>
+        <v>10.79018172918848</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13.58288719103339</v>
+        <v>12.2679289839925</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11.28717183380171</v>
+        <v>9.873804600184599</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.57175611772968</v>
+        <v>11.33949641835103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13.18045502208227</v>
+        <v>12.26926047755127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>14.54984800417844</v>
+        <v>13.33784879145171</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>11.64695324519174</v>
+        <v>10.33215490030048</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>14.38799037801664</v>
+        <v>12.671808382455</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13.07338452715567</v>
+        <v>11.19262517769556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17.67236236449287</v>
+        <v>15.48787191038721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14.69970836592336</v>
+        <v>13.38839581231926</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14.65588434849104</v>
+        <v>12.90626170728282</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>13.97648179175445</v>
+        <v>12.5276258280859</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14.98497893220772</v>
+        <v>13.19894011309694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16.59486746343893</v>
+        <v>14.5247248952989</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14.49698285476988</v>
+        <v>12.93778939155904</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15.59386102552727</v>
+        <v>13.88548470606194</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>14.46688762663946</v>
+        <v>12.77950087836109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>14.89206021696603</v>
+        <v>13.32780306795826</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17.40266703765258</v>
+        <v>15.91066099610471</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>14.3708626552866</v>
+        <v>13.44500137144931</v>
       </c>
     </row>
   </sheetData>
